--- a/Data_processed/industry/textile.xlsx
+++ b/Data_processed/industry/textile.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/textile.xlsx
+++ b/Data_processed/industry/textile.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/textile.xlsx
+++ b/Data_processed/industry/textile.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.136763937899564</v>
+        <v>5.13</v>
       </c>
       <c r="E2" t="n">
-        <v>5.13</v>
+        <v>100.338</v>
       </c>
       <c r="F2" t="n">
-        <v>100.338</v>
+        <v>0.00014303801</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.927425593282</v>
+        <v>0.3329423266666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3329423266666667</v>
+        <v>5.7885818</v>
       </c>
       <c r="F3" t="n">
-        <v>5.7885818</v>
+        <v>9.2833156e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.00196732404</v>
+        <v>0.7626977333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7626977333333333</v>
+        <v>13.23279</v>
       </c>
       <c r="F4" t="n">
-        <v>13.23279</v>
+        <v>2.1266037e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.035824369004</v>
+        <v>0.8813826000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8813826000000001</v>
+        <v>13.630893</v>
       </c>
       <c r="F5" t="n">
-        <v>13.630893</v>
+        <v>2.4575285e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.110148520444</v>
+        <v>1.313870133333333</v>
       </c>
       <c r="E6" t="n">
-        <v>1.313870133333333</v>
+        <v>21.129109</v>
       </c>
       <c r="F6" t="n">
-        <v>21.129109</v>
+        <v>3.6634185e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.055150118498</v>
+        <v>1.000428</v>
       </c>
       <c r="E7" t="n">
-        <v>1.000428</v>
+        <v>15.678095</v>
       </c>
       <c r="F7" t="n">
-        <v>15.678095</v>
+        <v>2.7894588e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.30014482377</v>
+        <v>3.295048733333334</v>
       </c>
       <c r="E8" t="n">
-        <v>3.295048733333334</v>
+        <v>107.43137</v>
       </c>
       <c r="F8" t="n">
-        <v>107.43137</v>
+        <v>9.1874702e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.4037584574947</v>
+        <v>7.504679333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>7.504679333333333</v>
+        <v>115.2773</v>
       </c>
       <c r="F9" t="n">
-        <v>115.2773</v>
+        <v>0.00020925037</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8754598200470001</v>
+        <v>3.797658933333334</v>
       </c>
       <c r="E10" t="n">
-        <v>3.797658933333334</v>
+        <v>41.685644</v>
       </c>
       <c r="F10" t="n">
-        <v>41.685644</v>
+        <v>0.00010588881</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.545265481048</v>
+        <v>3.797658933333334</v>
       </c>
       <c r="E11" t="n">
-        <v>3.797658933333334</v>
+        <v>41.685645</v>
       </c>
       <c r="F11" t="n">
-        <v>41.685645</v>
+        <v>0.00010588881</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8899973161020001</v>
+        <v>3.9534742</v>
       </c>
       <c r="E12" t="n">
-        <v>3.9534742</v>
+        <v>49.063453</v>
       </c>
       <c r="F12" t="n">
-        <v>49.063453</v>
+        <v>0.00011023335</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9258298469739999</v>
+        <v>2.742414666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>2.742414666666667</v>
+        <v>43.724239</v>
       </c>
       <c r="F13" t="n">
-        <v>43.724239</v>
+        <v>7.6465798e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.627611325701</v>
+        <v>1.332928466666667</v>
       </c>
       <c r="E14" t="n">
-        <v>1.332928466666667</v>
+        <v>22.840126</v>
       </c>
       <c r="F14" t="n">
-        <v>22.840126</v>
+        <v>3.7165582e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.63464265953</v>
+        <v>5.46</v>
       </c>
       <c r="E15" t="n">
-        <v>5.46</v>
+        <v>124.2204</v>
       </c>
       <c r="F15" t="n">
-        <v>124.2204</v>
+        <v>0.00015223929</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.00580687394474</v>
+        <v>2.051337733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>2.051337733333333</v>
+        <v>72.04149099999999</v>
       </c>
       <c r="F16" t="n">
-        <v>72.04149099999999</v>
+        <v>5.719674e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.594943025599</v>
+        <v>3.543347266666667</v>
       </c>
       <c r="E17" t="n">
-        <v>3.543347266666667</v>
+        <v>73.408489</v>
       </c>
       <c r="F17" t="n">
-        <v>73.408489</v>
+        <v>9.879792299999999e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9831310604219999</v>
+        <v>3.324106266666667</v>
       </c>
       <c r="E18" t="n">
-        <v>3.324106266666667</v>
+        <v>74.167906</v>
       </c>
       <c r="F18" t="n">
-        <v>74.167906</v>
+        <v>9.2684902e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.37663849153382</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>21.783</v>
       </c>
       <c r="F19" t="n">
-        <v>21.783</v>
+        <v>4.182398e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.1442204915802</v>
+        <v>78.08035333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>78.08035333333333</v>
+        <v>61.672334</v>
       </c>
       <c r="F20" t="n">
-        <v>61.672334</v>
+        <v>0.0021770875</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.1938793114</v>
+        <v>1.63</v>
       </c>
       <c r="E21" t="n">
-        <v>1.63</v>
+        <v>82.255</v>
       </c>
       <c r="F21" t="n">
-        <v>82.255</v>
+        <v>4.5448725e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3804998321204</v>
+        <v>1.377814533333333</v>
       </c>
       <c r="E22" t="n">
-        <v>1.377814533333333</v>
+        <v>10.828352</v>
       </c>
       <c r="F22" t="n">
-        <v>10.828352</v>
+        <v>3.8417125e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7.3776806239352</v>
+        <v>3.115061133333334</v>
       </c>
       <c r="E23" t="n">
-        <v>3.115061133333334</v>
+        <v>42.761759</v>
       </c>
       <c r="F23" t="n">
-        <v>42.761759</v>
+        <v>8.685616999999999e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6331376624352</v>
+        <v>3.115061133333334</v>
       </c>
       <c r="E24" t="n">
-        <v>3.115061133333334</v>
+        <v>42.761759</v>
       </c>
       <c r="F24" t="n">
-        <v>42.761759</v>
+        <v>8.685616999999999e-05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2275431997907</v>
+        <v>1.130179133333333</v>
       </c>
       <c r="E25" t="n">
-        <v>1.130179133333333</v>
+        <v>16.810616</v>
       </c>
       <c r="F25" t="n">
-        <v>16.810616</v>
+        <v>3.1512393e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.04881572242</v>
+        <v>0.2490375666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2490375666666667</v>
+        <v>4.4964375</v>
       </c>
       <c r="F26" t="n">
-        <v>4.4964375</v>
+        <v>6.9438282e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.020100591493</v>
+        <v>0.10254488</v>
       </c>
       <c r="E27" t="n">
-        <v>0.10254488</v>
+        <v>1.8514743</v>
       </c>
       <c r="F27" t="n">
-        <v>1.8514743</v>
+        <v>2.8592234e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.013400394296</v>
+        <v>0.06836325333333335</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06836325333333335</v>
+        <v>1.2343162</v>
       </c>
       <c r="F28" t="n">
-        <v>1.2343162</v>
+        <v>1.9061489e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3497975857575</v>
+        <v>1.7232184</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7232184</v>
+        <v>23.923034</v>
       </c>
       <c r="F29" t="n">
-        <v>23.923034</v>
+        <v>4.8047902e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.1478918439</v>
+        <v>10.95765333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>10.95765333333333</v>
+        <v>197.84325</v>
       </c>
       <c r="F30" t="n">
-        <v>197.84325</v>
+        <v>0.00030552844</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.3811977627</v>
+        <v>7.046298000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>7.046298000000001</v>
+        <v>127.22273</v>
       </c>
       <c r="F31" t="n">
-        <v>127.22273</v>
+        <v>0.00019646949</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9667427363000001</v>
+        <v>4.931920466666667</v>
       </c>
       <c r="E32" t="n">
-        <v>4.931920466666667</v>
+        <v>89.047096</v>
       </c>
       <c r="F32" t="n">
-        <v>89.047096</v>
+        <v>0.00013751503</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.6441761019</v>
+        <v>3.286319266666667</v>
       </c>
       <c r="E33" t="n">
-        <v>3.286319266666667</v>
+        <v>59.335342</v>
       </c>
       <c r="F33" t="n">
-        <v>59.335342</v>
+        <v>9.1631302e-05</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4833713746</v>
+        <v>2.465960266666666</v>
       </c>
       <c r="E34" t="n">
-        <v>2.465960266666666</v>
+        <v>44.523548</v>
       </c>
       <c r="F34" t="n">
-        <v>44.523548</v>
+        <v>6.875751499999999e-05</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.32256663994</v>
+        <v>1.6456012</v>
       </c>
       <c r="E35" t="n">
-        <v>1.6456012</v>
+        <v>29.711754</v>
       </c>
       <c r="F35" t="n">
-        <v>29.711754</v>
+        <v>4.5883728e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.24216427164</v>
+        <v>1.235421666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>1.235421666666667</v>
+        <v>22.305857</v>
       </c>
       <c r="F36" t="n">
-        <v>22.305857</v>
+        <v>3.4446834e-05</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.19334854415</v>
+        <v>0.9863840666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9863840666666667</v>
+        <v>17.809419</v>
       </c>
       <c r="F37" t="n">
-        <v>17.809419</v>
+        <v>2.7503006e-05</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.155682949848</v>
+        <v>0.7760302666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7760302666666667</v>
+        <v>11.87686</v>
       </c>
       <c r="F38" t="n">
-        <v>11.87686</v>
+        <v>2.1637784e-05</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.04451433441339801</v>
+        <v>0.22582928</v>
       </c>
       <c r="E39" t="n">
-        <v>0.22582928</v>
+        <v>3.9291096</v>
       </c>
       <c r="F39" t="n">
-        <v>3.9291096</v>
+        <v>6.2967195e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.09571710323</v>
+        <v>0.4883089600000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4883089600000001</v>
+        <v>8.8165441</v>
       </c>
       <c r="F40" t="n">
-        <v>8.8165441</v>
+        <v>1.3615349e-05</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9.444406571</v>
+        <v>48.18144466666666</v>
       </c>
       <c r="E41" t="n">
-        <v>48.18144466666666</v>
+        <v>869.92841</v>
       </c>
       <c r="F41" t="n">
-        <v>869.92841</v>
+        <v>0.0013434265</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.721724664</v>
+        <v>24.08828066666667</v>
       </c>
       <c r="E42" t="n">
-        <v>24.08828066666667</v>
+        <v>434.92012</v>
       </c>
       <c r="F42" t="n">
-        <v>434.92012</v>
+        <v>0.00067164519</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.1481354777</v>
+        <v>16.06048133333334</v>
       </c>
       <c r="E43" t="n">
-        <v>16.06048133333334</v>
+        <v>289.97614</v>
       </c>
       <c r="F43" t="n">
-        <v>289.97614</v>
+        <v>0.00044780884</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.0234595582</v>
+        <v>10.32285133333333</v>
       </c>
       <c r="E44" t="n">
-        <v>10.32285133333333</v>
+        <v>186.38174</v>
       </c>
       <c r="F44" t="n">
-        <v>186.38174</v>
+        <v>0.00028782849</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.4166131365</v>
+        <v>7.226972666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>7.226972666666667</v>
+        <v>130.48485</v>
       </c>
       <c r="F45" t="n">
-        <v>130.48485</v>
+        <v>0.00020150717</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9447278102000001</v>
+        <v>4.8196094</v>
       </c>
       <c r="E46" t="n">
-        <v>4.8196094</v>
+        <v>87.01929</v>
       </c>
       <c r="F46" t="n">
-        <v>87.01929</v>
+        <v>0.0001343835</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7083065627</v>
+        <v>3.613486266666667</v>
       </c>
       <c r="E47" t="n">
-        <v>3.613486266666667</v>
+        <v>65.24242599999999</v>
       </c>
       <c r="F47" t="n">
-        <v>65.24242599999999</v>
+        <v>0.00010075359</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.4718853243</v>
+        <v>2.4073632</v>
       </c>
       <c r="E48" t="n">
-        <v>2.4073632</v>
+        <v>43.465562</v>
       </c>
       <c r="F48" t="n">
-        <v>43.465562</v>
+        <v>6.7123673e-05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3541532802</v>
+        <v>1.806743133333333</v>
       </c>
       <c r="E49" t="n">
-        <v>1.806743133333333</v>
+        <v>32.621213</v>
       </c>
       <c r="F49" t="n">
-        <v>32.621213</v>
+        <v>5.0376793e-05</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.28332262853</v>
+        <v>1.445394533333333</v>
       </c>
       <c r="E50" t="n">
-        <v>1.445394533333333</v>
+        <v>26.096971</v>
       </c>
       <c r="F50" t="n">
-        <v>26.096971</v>
+        <v>4.0301434e-05</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.632884897033</v>
+        <v>3.8514248</v>
       </c>
       <c r="E51" t="n">
-        <v>3.8514248</v>
+        <v>120.22883</v>
       </c>
       <c r="F51" t="n">
-        <v>120.22883</v>
+        <v>0.00010738794</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.1214176742883</v>
+        <v>0.4297642400000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4297642400000001</v>
+        <v>6.0446765</v>
       </c>
       <c r="F52" t="n">
-        <v>6.0446765</v>
+        <v>1.1982967e-05</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.09209488824270001</v>
+        <v>0.31720566</v>
       </c>
       <c r="E53" t="n">
-        <v>0.31720566</v>
+        <v>5.3673553</v>
       </c>
       <c r="F53" t="n">
-        <v>5.3673553</v>
+        <v>8.8445355e-06</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.25720693229573</v>
+        <v>3.315677</v>
       </c>
       <c r="E54" t="n">
-        <v>3.315677</v>
+        <v>92.73489499999999</v>
       </c>
       <c r="F54" t="n">
-        <v>92.73489499999999</v>
+        <v>9.2449873e-05</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2115,5 +2160,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>